--- a/data/Subset1_WithDialogActs/Boats and Fish 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Boats and Fish 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -1003,12 +1003,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2607,12 +2607,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3409,12 +3409,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4135,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6081,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6195,12 +6195,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6233,12 +6233,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6537,12 +6537,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7601,12 +7601,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7943,12 +7943,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
